--- a/2A.xlsx
+++ b/2A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>Classe 2A INFORMATICA</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>ABBATIELLO ANDREA</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>BRUNO DOMENICO</t>
@@ -117,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +145,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,11 +175,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,29 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -202,6 +199,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -209,15 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -226,59 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,103 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,73 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +575,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,11 +607,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,159 +622,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,9 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,7 +1127,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79605263157895" defaultRowHeight="13"/>
@@ -1185,12 +1179,8 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
@@ -1201,23 +1191,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
         <f>COUNTIF(C5:C23,"x")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1225,23 +1211,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
       <c r="H7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="12">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
         <f>COUNTIF(C5:C23,"")</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1249,14 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
@@ -1267,14 +1245,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
       <c r="G9" s="2"/>
@@ -1284,23 +1258,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
         <f>COUNTIF(D5:D23,"x")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1308,23 +1278,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
       <c r="H11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <f>COUNTIF(D6:D24,"")</f>
-        <v>1</v>
+        <f>COUNTIF(D5:D23,"")</f>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1332,14 +1298,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
@@ -1350,14 +1312,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7"/>
       <c r="G13" s="2"/>
@@ -1368,22 +1326,18 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="H14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <f>COUNTIF(E6:E22,"x")</f>
+        <f>COUNTIF(E5:E23,"x")</f>
         <v>0</v>
       </c>
     </row>
@@ -1392,23 +1346,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="10"/>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7">
-        <f>COUNTIF(D5:D23,"")</f>
-        <v>0</v>
+        <f>COUNTIF(E5:E23,"")</f>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1416,14 +1366,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -1433,14 +1379,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="10"/>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -1451,14 +1393,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="10"/>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
@@ -1469,14 +1407,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="10"/>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
@@ -1487,14 +1421,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="10"/>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
@@ -1505,14 +1435,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="10"/>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
@@ -1523,14 +1449,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="10"/>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
@@ -1541,14 +1463,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="10"/>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
